--- a/teuthology/teuthology case集合.xlsx
+++ b/teuthology/teuthology case集合.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/teuthology/teuthology case集合.xlsx
+++ b/teuthology/teuthology case集合.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="teuthology case集合" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="teuthology 测试思想" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="465">
   <si>
     <t>ceph-qa-suite project
 https://github.com/ceph/ceph-qa-suite.git</t>
@@ -171,49 +171,3317 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rbd/import_export.sh</t>
+  </si>
+  <si>
+    <t>rbd/test_librbd.sh</t>
+  </si>
+  <si>
+    <t>rbd/run_cli_tests.sh</t>
+  </si>
+  <si>
+    <t>cls/test_cls_rbd.sh</t>
+  </si>
+  <si>
+    <t>rbd/test_lock_fence.sh</t>
+  </si>
+  <si>
+    <t>rbd/test_librbd_python.sh</t>
+  </si>
+  <si>
+    <t>rbd/rbd-nbd.sh</t>
+  </si>
+  <si>
+    <t>rbd/test_rbd_mirror.sh</t>
+  </si>
+  <si>
     <t>valgrind</t>
+  </si>
+  <si>
+    <t>valgrind检查内存泄漏工具--tool=memcheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>workloads</t>
+  </si>
+  <si>
+    <t>workloads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">os_type: centos   # xenial valgrind buggy, see http://tracker.ceph.com/issues/18126
+overrides:
+  install:
+    ceph:
+      flavor: notcmalloc
+      debuginfo: true
+  rbd_fsx:
+    valgrind: ["--tool=memcheck"]
+  workunit:
+    env:
+      VALGRIND: "memcheck"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_api_tests.yaml</t>
+  </si>
+  <si>
+    <t>c_api_tests_with_defaults.yaml</t>
+  </si>
+  <si>
+    <t>c_api_tests_with_journaling.yaml</t>
+  </si>
+  <si>
+    <t>fsx.yaml</t>
+  </si>
+  <si>
+    <t>python_api_tests.yaml</t>
+  </si>
+  <si>
+    <t>python_api_tests_with_defaults.yaml</t>
+  </si>
+  <si>
+    <t>python_api_tests_with_journaling.yaml</t>
+  </si>
+  <si>
+    <t>rbd_mirror.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_librbd.sh
+    env:
+      RBD_FEATURES: "1"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_librbd.sh
+    env:
+      RBD_FEATURES: "61"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_librbd.sh
+    env:
+      RBD_FEATURES: "125"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- rbd_fsx:
+    clients: [client.0]
+    size: 134217728
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_librbd_python.sh
+    env:
+      RBD_FEATURES: "1"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_librbd_python.sh
+    env:
+      RBD_FEATURES: "61"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_librbd_python.sh
+    env:
+      RBD_FEATURES: "125"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_rbd_mirror.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>install.yaml</t>
+  </si>
+  <si>
+    <t>install.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none.yaml</t>
+  </si>
+  <si>
+    <t>small.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- exec:
+    client.0:
+      - sudo ceph osd pool create cache 4
+      - sudo ceph osd tier add rbd cache
+      - sudo ceph osd tier cache-mode cache writeback
+      - sudo ceph osd tier set-overlay rbd cache
+      - sudo ceph osd pool set cache hit_set_type bloom
+      - sudo ceph osd pool set cache hit_set_count 8
+      - sudo ceph osd pool set cache hit_set_period 60
+      - sudo ceph osd pool set cache target_max_objects 250
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clusters</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../clusters/fixed-1.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed-1.yaml</t>
+  </si>
+  <si>
+    <t>openstack.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 30 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>fs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xfs.yaml</t>
+  </si>
+  <si>
+    <t>../../../../fs/xfs.yaml</t>
+  </si>
+  <si>
+    <t>msgr-failures</t>
+  </si>
+  <si>
+    <t>msgr-failures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>few.yaml</t>
+  </si>
+  <si>
+    <t>many.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      global:
+        ms inject socket failures: 5000
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      global:
+        ms inject socket failures: 500
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>rbd_api_tests_old_format.yaml</t>
+  </si>
+  <si>
+    <t>rbd_cli_tests.yaml</t>
+  </si>
+  <si>
+    <t>rbd_cls_tests.yaml</t>
+  </si>
+  <si>
+    <t>rbd_lock_and_fence.yaml</t>
+  </si>
+  <si>
+    <t>rbd_python_api_tests_old_format.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_librbd.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/run_cli_tests.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - cls/test_cls_rbd.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_lock_fence.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_librbd_python.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd/test_librbd.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectstore</t>
+  </si>
+  <si>
+    <t>../../../objectstore</t>
+  </si>
+  <si>
+    <t>../../../objectstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>defaults.yaml</t>
+  </si>
+  <si>
+    <t>defaults.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format-1.yaml</t>
+  </si>
+  <si>
+    <t>journaling.yaml</t>
+  </si>
+  <si>
+    <t>layering.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      client:
+        rbd default format: 2
+        rbd default features: 61
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      client:
+        rbd default format: 1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      client:
+        rbd default format: 2
+        rbd default features: 125
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      client:
+        rbd default format: 2
+        rbd default features: 1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec-data-pool.yaml</t>
+  </si>
+  <si>
+    <t>replicated-data-pool.yaml</t>
+  </si>
+  <si>
+    <t>small-cache-pool.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- exec:
+    client.0:
+      - sudo ceph osd erasure-code-profile set teuthologyprofile ruleset-failure-domain=osd m=1 k=2
+      - sudo ceph osd pool create datapool 4 4 erasure teuthologyprofile
+      - sudo ceph osd pool set datapool debug_white_box_testing_ec_overwrites true
+overrides:
+  ceph:
+    conf:
+      global:
+        enable experimental unrecoverable data corrupting features: debug_white_box_testing_ec_overwrites
+      client:
+        rbd default data pool: datapool
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- exec:
+    client.0:
+      - sudo ceph osd pool create datapool 4
+overrides:
+  ceph:
+    conf:
+      client:
+        rbd default data pool: datapool
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd_cli_copy.yaml</t>
+  </si>
+  <si>
+    <t>rbd_cli_import_export.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/copy.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/import_export.sh
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rbd/copy.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbd/import_export.sh</t>
-  </si>
-  <si>
-    <t>rbd/test_librbd.sh</t>
-  </si>
-  <si>
-    <t>rbd/test_librbd.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbd/run_cli_tests.sh</t>
-  </si>
-  <si>
-    <t>cls/test_cls_rbd.sh</t>
-  </si>
-  <si>
-    <t>rbd/test_lock_fence.sh</t>
-  </si>
-  <si>
-    <t>rbd/test_librbd_python.sh</t>
+  </si>
+  <si>
+    <t>tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clusters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cachepool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../basic/clusters</t>
+  </si>
+  <si>
+    <t>../basic/fs</t>
+  </si>
+  <si>
+    <t>teuthology项目结合ceph-qa-suite项目实现混合模式测试
+ceph-qa-suite会设置不同的ceph配置，然后结合第三方工具或ceph自己的脚本来测试ceph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>writeback.yaml</t>
+  </si>
+  <si>
+    <t>writethrough.yaml</t>
+  </si>
+  <si>
+    <t>fixed-3.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+    conf:
+      client:
+        rbd cache: false
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+    conf:
+      client:
+        rbd cache: true
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+    conf:
+      client:
+        rbd cache: true
+        rbd cache max dirty: 0
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../clusters/fixed-3.yaml</t>
+  </si>
+  <si>
+    <t>copy-on-read.yaml</t>
+  </si>
+  <si>
+    <t>skip-partial-discard.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      client:
+        rbd clone copy on read: true
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      client:
+        rbd skip partial discard: true
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      global:
+        ms inject socket failures: 5000
+    log-whitelist:
+    - wrongly marked me down
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd_fio.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- rbd_fsx:
+    clients: [client.0]
+    ops: 20000
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- rbd_fio:
+    client.0:
+      fio-io-size: 80%
+      formats: [2]
+      features: [[layering],[layering,exclusive-lock,object-map]]
+      io-engine: rbd
+      test-clone-io: 1
+      rw: randrw
+      runtime: 900
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../basic/fs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../qemu/clusters/openstack.yaml</t>
+  </si>
+  <si>
+    <t>xfstests.yaml</t>
+  </si>
+  <si>
+    <t>dynamic_features.yaml</t>
+  </si>
+  <si>
+    <t>rebuild_object_map.yaml</t>
+  </si>
+  <si>
+    <t>../../../fs/xfs.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- parallel:
+    - io_workload
+    - op_workload
+io_workload:
+  sequential:
+    - qemu:
+        client.0:
+          clone: true
+          type: block
+          num_rbd: 2
+          test: http://git.ceph.com/?p=ceph.git;a=blob_plain;f=qa/run_xfstests_qemu.sh
+exclude_arch: armv7l
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">op_workload:
+  sequential:
+    - workunit:
+        clients:
+          client.0:
+          - rbd/qemu_dynamic_features.sh
+        env:
+          IMAGE_NAME: client.0.1-clone
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">op_workload:
+  sequential:
+    - workunit:
+        clients:
+          client.0:
+          - rbd/qemu_rebuild_object_map.sh
+        env:
+          IMAGE_NAME: client.0.1-clone
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rbd/qemu_dynamic_features.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rbd/qemu_rebuild_object_map.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd-mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">meta:
+- desc: run two ceph clusters and install rbd-mirror
+tasks:
+- install:
+    extra_packages: [rbd-mirror]
+- ceph:
+    cluster: cluster1
+- ceph:
+    cluster: cluster2
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-node.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta:
+- desc: 2 ceph clusters with 3 mons and 3 osds each
+roles:
+- - cluster1.mon.a
+  - cluster1.mon.b
+  - cluster1.osd.0
+  - cluster1.osd.1
+  - cluster1.osd.2
+  - cluster2.mon.c
+  - cluster1.client.0
+  - cluster2.client.0
+- - cluster1.mon.c
+  - cluster2.mon.a
+  - cluster2.mon.b
+  - cluster2.osd.0
+  - cluster2.osd.1
+  - cluster2.osd.2
+  - cluster1.client.mirror
+  - cluster2.client.mirror
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-per-cluster.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta:
+- desc: run one rbd-mirror daemon per cluster
+overrides:
+  ceph:
+    conf:
+      client.mirror:
+        # override to make these names predictable
+        admin socket: /var/run/ceph/$cluster-$name.asok
+        pid file: /var/run/ceph/$cluster-$name.pid
+tasks:
+- rbd-mirror:
+    client: cluster1.client.mirror
+- rbd-mirror:
+    client: cluster2.client.mirror
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd-mirror-stress-workunit.yaml</t>
+  </si>
+  <si>
+    <t>rbd-mirror-workunit.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta:
+- desc: run the rbd_mirror_stress.sh workunit to test the rbd-mirror daemon
+tasks:
+- workunit:
+    clients:
+      cluster1.client.mirror: [rbd/rbd_mirror_stress.sh]
+    env:
+      # override workunit setting of CEPH_ARGS='--cluster'
+      CEPH_ARGS: ''
+      RBD_MIRROR_USE_EXISTING_CLUSTER: '1'
+      RBD_MIRROR_USE_RBD_MIRROR: '1'
+    timeout: 6h
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">meta:
+- desc: run the rbd_mirror.sh workunit to test the rbd-mirror daemon
+tasks:
+- workunit:
+    clients:
+      cluster1.client.mirror: [rbd/rbd_mirror.sh]
+    env:
+      # override workunit setting of CEPH_ARGS='--cluster'
+      CEPH_ARGS: ''
+      RBD_MIRROR_USE_EXISTING_CLUSTER: '1'
+      RBD_MIRROR_USE_RBD_MIRROR: '1'
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../basic/msgr-failures</t>
   </si>
   <si>
     <t>rbd/rbd_mirror_stress.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rbd/rbd_mirror.sh</t>
-  </si>
-  <si>
-    <t>rbd/rbd-nbd.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd_fsx_nbd.yaml</t>
+  </si>
+  <si>
+    <t>rbd_nbd.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, mon.c, osd.0, osd.1, osd.2]
+- [mon.b, osd.3, osd.4, osd.5]
+- [client.0]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../thrash/clusters/openstack.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">os_type: ubuntu
+overrides:
+  install:
+    ceph:
+      extra_packages: [rbd-nbd]
+tasks:
+- rbd_fsx:
+    clients: [client.0]
+    ops: 6000
+    nbd: True
+    holebdy: 512
+    punch_holes: true
+    readbdy: 512
+    truncbdy: 512
+    writebdy: 512
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">os_type: ubuntu
+overrides:
+  install:
+    ceph:
+      extra_packages: [rbd-nbd]
+tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/rbd-nbd.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrashers</t>
+  </si>
+  <si>
+    <t>../thrash/base</t>
+  </si>
+  <si>
+    <t>../thrash/fs</t>
+  </si>
+  <si>
+    <t>../thrash/msgr-failures</t>
+  </si>
+  <si>
+    <t>../thrash/thrashers</t>
+  </si>
+  <si>
+    <t>../../../../clusters/fixed-3.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">openstack:
+  - machine:
+      disk: 40 # GB
+      ram: 30000 # MB
+      cpus: 1
+    volumes: # attached to each instance
+      count: 3
+      size: 30 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec-cache-pool.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- exec:
+    client.0:
+      - sudo ceph osd erasure-code-profile set teuthologyprofile ruleset-failure-domain=osd m=1 k=2
+      - sudo ceph osd pool delete rbd rbd --yes-i-really-really-mean-it
+      - sudo ceph osd pool create rbd 4 4 erasure teuthologyprofile
+      - sudo ceph osd pool create cache 4
+      - sudo ceph osd tier add rbd cache
+      - sudo ceph osd tier cache-mode cache writeback
+      - sudo ceph osd tier set-overlay rbd cache
+      - sudo ceph osd pool set cache hit_set_type bloom
+      - sudo ceph osd pool set cache hit_set_count 8
+      - sudo ceph osd pool set cache hit_set_period 60
+      - sudo ceph osd pool set cache target_max_objects 250
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- exec:
+    client.0:
+      - sudo ceph osd erasure-code-profile set teuthologyprofile ruleset-failure-domain=osd m=1 k=2
+      - sudo ceph osd pool create datapool 4 4 erasure teuthologyprofile
+      - sudo ceph osd pool set datapool debug_white_box_testing_ec_overwrites true
+overrides:
+  ceph:
+    conf:
+      global:
+        enable experimental unrecoverable data corrupting features: debug_white_box_testing_ec_overwrites
+      client:
+        rbd default data pool: datapool
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qemu_bonnie.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- qemu:
+    all:
+      clone: true
+      test: http://git.ceph.com/?p=ceph.git;a=blob_plain;f=qa/workunits/suites/bonnie.sh
+exclude_arch: armv7l
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qemu_fsstress.yaml</t>
+  </si>
+  <si>
+    <t>qemu_xfstests.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- qemu:
+    all:
+      clone: true
+      test: http://git.ceph.com/?p=ceph.git;a=blob_plain;f=qa/workunits/suites/fsstress.sh
+exclude_arch: armv7l
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- qemu:
+    all:
+      clone: true
+      type: block
+      num_rbd: 2
+      test: http://git.ceph.com/?p=ceph.git;a=blob_plain;f=qa/run_xfstests_qemu.sh
+exclude_arch: armv7l
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qa/workunits/suites/bonnie.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qa/workunits/suites/fsstress.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qa/run_xfstests_qemu.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#qemu_xfstests.yaml#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qemu_iozone.yaml.disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- qemu:
+    all:
+      test: http://git.ceph.com/?p=ceph.git;a=blob_plain;f=qa/workunits/suites/iozone.sh
+      image_size: 20480
+exclude_arch: armv7l
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qa/workunits/suites/iozone.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- qemu:
+    all:
+      type: block
+      num_rbd: 2
+      grtest: http://git.ceph.com/?p=ceph.git;a=blob_plain;f=qa/run_xfstests_qemu.sh
+exclude_arch: armv7l
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_socket.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- workunit:
+    clients:
+      all: [rbd/test_admin_socket.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatted-output.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- cram:
+    clients:
+      client.0:
+      - http://git.ceph.com/?p=ceph.git;a=blob_plain;hb={branch};f=src/test/cli-integration/rbd/formatted-output.t
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge_diff.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- workunit:
+    clients:
+      all: [rbd/merge_diff.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permissions.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- workunit:
+    clients:
+      all: [rbd/permissions.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qemu-iotests-no-cache.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_arch: armv7l
+roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+    conf:
+      client:
+        rbd cache: false
+- workunit:
+    clients:
+      all: [rbd/qemu-iotests.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qemu-iotests-writeback.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_arch: armv7l
+roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+    conf:
+      client:
+        rbd cache: true
+- workunit:
+    clients:
+      all: [rbd/qemu-iotests.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qemu-iotests-writethrough.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_arch: armv7l
+roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+    conf:
+      client:
+        rbd cache: true
+        rbd cache max dirty: 0
+- workunit:
+    clients:
+      all: [rbd/qemu-iotests.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd-vs-unmanaged-snaps.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+    conf:
+      client:
+        rbd validate pool: false
+- workunit:
+    clients:
+      all:
+        - mon/rbd_snaps_ops.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- workunit:
+    clients:
+      all: [rbd/test_rbd_mirror.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbdmap_RBDMAPFILE.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [client.0]
+tasks:
+- install:
+- workunit:
+    clients:
+      all: [rbd/test_rbdmap_RBDMAPFILE.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read-flags-no-cache.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+    conf:
+      client:
+        rbd cache: false
+- workunit:
+    clients:
+      all: [rbd/read-flags.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read-flags-writeback.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+    conf:
+      client:
+        rbd cache: true
+- workunit:
+    clients:
+      all: [rbd/read-flags.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read-flags-writethrough.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+    conf:
+      client:
+        rbd cache: true
+        rbd cache max dirty: 0
+- workunit:
+    clients:
+      all: [rbd/read-flags.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify_pool.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- workunit:
+    clients:
+      all: [rbd/verify_pool.sh]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">openstack:
+  - volumes: # attached to each instance
+      count: 2
+      size: 30 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd/test_admin_socket.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd/merge_diff.sh</t>
+  </si>
+  <si>
+    <t>rbd/permissions.sh</t>
+  </si>
+  <si>
+    <t>rbd/qemu-iotests.sh</t>
+  </si>
+  <si>
+    <t>mon/rbd_snaps_ops.sh</t>
+  </si>
+  <si>
+    <t>rbd/test_rbdmap_RBDMAPFILE.sh</t>
+  </si>
+  <si>
+    <t>rbd/read-flags.sh</t>
+  </si>
+  <si>
+    <t>rbd/verify_pool.sh</t>
+  </si>
+  <si>
+    <t>fixed-2.yaml</t>
+  </si>
+  <si>
+    <t>../../../../clusters/fixed-2.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openstack:
+  - machine:
+      disk: 40 # GB
+      ram: 8000 # MB
+      cpus: 1
+    volumes: # attached to each instance
+      count: 3
+      size: 30 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xfs.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache.yaml</t>
+  </si>
+  <si>
+    <t>default.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+    - wrongly marked me down
+    - objects unfound and apparently lost
+tasks:
+- exec:
+    client.0:
+      - sudo ceph osd pool create cache 4
+      - sudo ceph osd tier add rbd cache
+      - sudo ceph osd tier cache-mode cache writeback
+      - sudo ceph osd tier set-overlay rbd cache
+      - sudo ceph osd pool set cache hit_set_type bloom
+      - sudo ceph osd pool set cache hit_set_count 8
+      - sudo ceph osd pool set cache hit_set_period 60
+      - sudo ceph osd pool set cache target_max_objects 250
+- thrashosds:
+    timeout: 1200
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+    - wrongly marked me down
+    - objects unfound and apparently lost
+tasks:
+- thrashosds:
+    timeout: 1200
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journal.yaml</t>
+  </si>
+  <si>
+    <t>rbd_api_tests.yaml</t>
+  </si>
+  <si>
+    <t>rbd_api_tests_copy_on_read.yaml</t>
+  </si>
+  <si>
+    <t>rbd_api_tests_journaling.yaml</t>
+  </si>
+  <si>
+    <t>rbd_api_tests_no_locking.yaml</t>
+  </si>
+  <si>
+    <t>rbd_fsx_cache_writeback.yaml</t>
+  </si>
+  <si>
+    <t>rbd_fsx_cache_writethrough.yaml</t>
+  </si>
+  <si>
+    <t>rbd_fsx_copy_on_read.yaml</t>
+  </si>
+  <si>
+    <t>rbd_fsx_journal.yaml</t>
+  </si>
+  <si>
+    <t>rbd_fsx_nocache.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/journal.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbd/journal.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- workunit:
+    clients:
+      client.0:
+        - rbd/test_librbd.sh
+    env:
+      RBD_FEATURES: "61"
+overrides:
+  ceph:
+    conf:
+      client:
+        rbd clone copy on read: true
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- rbd_fsx:
+    clients: [client.0]
+    ops: 6000
+overrides:
+  ceph:
+    conf:
+      client:
+        rbd cache: true
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- rbd_fsx:
+    clients: [client.0]
+    ops: 6000
+overrides:
+  ceph:
+    conf:
+      client:
+        rbd cache: true
+        rbd cache max dirty: 0
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- rbd_fsx:
+    clients: [client.0]
+    ops: 6000
+overrides:
+  ceph:
+    conf:
+      client:
+        rbd cache: true
+        rbd clone copy on read: true
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- rbd_fsx:
+    clients: [client.0]
+    ops: 6000
+    journal_replay: True
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- rbd_fsx:
+    clients: [client.0]
+    ops: 6000
+overrides:
+  ceph:
+    conf:
+      client:
+        rbd cache: false
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memcheck.yaml</t>
+  </si>
+  <si>
+    <t>monthrash</t>
+  </si>
+  <si>
+    <t>multimon</t>
+  </si>
+  <si>
+    <t>singleton</t>
+  </si>
+  <si>
+    <t>singleton-nomsgr</t>
+  </si>
+  <si>
+    <t>thrash</t>
+  </si>
+  <si>
+    <t>thrash-erasure-code</t>
+  </si>
+  <si>
+    <t>thrash-erasure-code-big</t>
+  </si>
+  <si>
+    <t>thrash-erasure-code-isa</t>
+  </si>
+  <si>
+    <t>thrash-erasure-code-shec</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>msgr</t>
+  </si>
+  <si>
+    <t>mon_kv_backend</t>
+  </si>
+  <si>
+    <t>rados.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btrfs.yaml</t>
+  </si>
+  <si>
+    <t>../../../../fs/btrfs.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../fs/xfs.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>async.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      global:
+        ms type: async
+        enable experimental unrecoverable data corrupting features: '*'
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      global:
+        ms type: random
+        enable experimental unrecoverable data corrupting features: '*'
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      global:
+        ms type: simple
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      global:
+        ms inject socket failures: 1500
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados_api_tests.yaml</t>
+  </si>
+  <si>
+    <t>rados_cls_all.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+    - reached quota
+    - wrongly marked me down
+tasks:
+- install:
+- ceph:
+- workunit:
+    clients:
+      client.0:
+        - rados/test.sh
+        - rados/test_pool_quota.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+- workunit:
+    clients:
+      client.0:
+        - cls
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados_python.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+- workunit:
+    clients:
+      client.0:
+        - rados/test_python.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados_stress_watch.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+- workunit:
+    clients:
+      client.0:
+        - rados/stress_watch.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados_striper.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+- exec:
+   client.0:
+   - ceph_test_rados_striper_api_io
+   - ceph_test_rados_striper_api_aio
+   - ceph_test_rados_striper_api_striping
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados_workunit_loadgen_big.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+    - wrongly marked me down
+tasks:
+- install:
+- ceph:
+- workunit:
+    clients:
+      all:
+        - rados/load-gen-big.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados_workunit_loadgen_mix.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+    - wrongly marked me down
+tasks:
+- install:
+- ceph:
+- workunit:
+    clients:
+      all:
+        - rados/load-gen-mix.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados_workunit_loadgen_mostlyread.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+    - wrongly marked me down
+tasks:
+- install:
+- ceph:
+- workunit:
+    clients:
+      all:
+        - rados/load-gen-mostlyread.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readwrite.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    crush_tunables: optimal
+    conf:
+      osd:
+        osd_discard_disconnected_ops: false
+tasks:
+- install:
+- ceph:
+- rados:
+    clients: [client.0]
+    ops: 4000
+    objects: 500
+    op_weights:
+      read: 45
+      write: 45
+      delete: 10
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_test.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+      - candidate had a stat error
+      - candidate had a read error
+      - deep-scrub 0 missing, 1 inconsistent objects
+      - deep-scrub 0 missing, 4 inconsistent objects
+      - deep-scrub [0-9]+ errors
+      - '!= omap_digest'
+      - '!= data_digest'
+      - repair 0 missing, 1 inconsistent objects
+      - repair 0 missing, 4 inconsistent objects
+      - repair [0-9]+ errors, [0-9]+ fixed
+      - scrub 0 missing, 1 inconsistent objects
+      - scrub [0-9]+ errors
+      - 'size 1 != size'
+      - attr name mismatch
+      - Regular scrub request, losing deep-scrub details
+    conf:
+      osd:
+        filestore debug inject read err: true
+        bluestore debug inject read err: true
+tasks:
+- install:
+- ceph:
+- repair_test:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgw_snaps.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      client:
+        debug rgw: 20
+        debug ms: 1
+tasks:
+- install:
+- ceph:
+- rgw:
+    default_idle_timeout: 3600
+    client.0: null
+- thrash_pool_snaps:
+    pools:
+    - .rgw.buckets
+    - .rgw.root
+    - .rgw.control
+    - .rgw
+    - .users.uid
+    - .users.email
+    - .users
+- s3readwrite:
+    client.0:
+      rgw_server: client.0
+      readwrite:
+        bucket: rwtest
+        readers: 10
+        writers: 3
+        duration: 300
+        files:
+          num: 10
+          size: 2000
+          stddev: 500
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrub_test.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+    - '!= data_digest'
+    - '!= omap_digest'
+    - '!= size'
+    - 'deep-scrub 0 missing, 1 inconsistent objects'
+    - 'deep-scrub [0-9]+ errors'
+    - 'repair 0 missing, 1 inconsistent objects'
+    - 'repair [0-9]+ errors, [0-9]+ fixed'
+    - 'shard [0-9]+ missing'
+    - 'deep-scrub 1 missing, 1 inconsistent objects'
+    - 'does not match object info size'
+    - 'attr name mistmatch'
+    - 'deep-scrub 1 missing, 0 inconsistent objects'
+    - 'failed to pick suitable auth object'
+    conf:
+      osd:
+        osd deep scrub update digest min age: 0
+tasks:
+- install:
+- ceph:
+- scrub_test:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../mon_kv_backend</t>
+  </si>
+  <si>
+    <t>../../../config/rados.yaml</t>
+  </si>
+  <si>
+    <t>rados/test.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados/test.sh
+rados/test_pool_quota.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados/test_python.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados/stress_watch.sh</t>
+  </si>
+  <si>
+    <t>ceph_test_rados_striper_api_io
+ceph_test_rados_striper_api_aio
+ceph_test_rados_striper_api_striping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados/load-gen-big.sh</t>
+  </si>
+  <si>
+    <t>rados/load-gen-mix.sh</t>
+  </si>
+  <si>
+    <t>rados/load-gen-mostlyread.sh</t>
+  </si>
+  <si>
+    <t>ceph</t>
+  </si>
+  <si>
+    <t>../basic/msgr</t>
+  </si>
+  <si>
+    <t>ceph.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      mon:
+        mon min osdmap epochs: 25
+        paxos service trim min: 5
+tasks:
+- install:
+- ceph:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-mons.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, mon.c, osd.0, osd.1, osd.2]
+- [mon.b, osd.3, osd.4, osd.5, client.0]
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-mons.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, mon.b, mon.c, mon.d, mon.e, osd.0, osd.1, osd.2]
+- [mon.f, mon.g, mon.h, mon.i, osd.3, osd.4, osd.5, client.0]
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon-delay.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      global:
+        ms inject socket failures: 2500
+        ms inject delay type: mon
+        ms inject delay probability: .005
+        ms inject delay max: 1
+        ms inject internal delays: .002
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>force-sync-many.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- mon_thrash:
+    revive_delay: 90
+    thrash_delay: 1
+    thrash_store: true
+    thrash_many: true
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one.yaml</t>
+  </si>
+  <si>
+    <t>sync-many.yaml</t>
+  </si>
+  <si>
+    <t>sync.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      osd:
+        mon client ping interval: 4
+        mon client ping timeout: 12
+tasks:
+- mon_thrash:
+    revive_delay: 20
+    thrash_delay: 1
+    thrash_many: true
+    freeze_mon_duration: 20
+    freeze_mon_probability: 10
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- mon_thrash:
+    revive_delay: 20
+    thrash_delay: 1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      mon:
+        paxos min: 10
+        paxos trim min: 10
+tasks:
+- mon_thrash:
+    revive_delay: 90
+    thrash_delay: 1
+    thrash_many: true
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      mon:
+        paxos min: 10
+        paxos trim min: 10
+tasks:
+- mon_thrash:
+    revive_delay: 90
+    thrash_delay: 1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool-create-delete.yaml</t>
+  </si>
+  <si>
+    <t>rados_5925.yaml</t>
+  </si>
+  <si>
+    <t>rados_mon_workunits.yaml</t>
+  </si>
+  <si>
+    <t>snaps-few-objects.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+      - slow request
+tasks:
+- exec:
+    client.0:
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+      - ceph_test_rados_delete_pools_parallel
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- exec:
+    client.0:
+      - ceph_test_rados_delete_pools_parallel --debug_objecter 20 --debug_ms 1 --debug_rados 20 --debug_monc 20
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+      - reached quota
+    conf:
+      global:
+        debug objecter: 20
+        debug rados: 20
+        debug ms: 1
+tasks:
+- workunit:
+    clients:
+      client.0:
+        - rados/test.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    log-whitelist:
+    - wrongly marked me down
+tasks:
+- workunit:
+    clients:
+      client.0:
+        - mon/pool_ops.sh
+        - mon/crush_ops.sh
+        - mon/osd.sh
+        - mon/caps.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- rados:
+    clients: [client.0]
+    ops: 4000
+    objects: 50
+    op_weights:
+      read: 100
+      write: 100
+      delete: 50
+      snap_create: 50
+      snap_remove: 50
+      rollback: 50
+      copy_from: 50
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph_test_rados_delete_pools_parallel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph_test_rados_delete_pools_parallel --debug_objecter 20 --debug_ms 1 --debug_rados 20 --debug_monc 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon/pool_ops.sh
+mon/crush_ops.sh
+mon/osd.sh
+mon/caps.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.yaml</t>
+  </si>
+  <si>
+    <t>3.yaml</t>
+  </si>
+  <si>
+    <t>6.yaml</t>
+  </si>
+  <si>
+    <t>9.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, mon.d, mon.g, mon.j, mon.m, mon.p, mon.s, osd.0]
+- [mon.b, mon.e, mon.h, mon.k, mon.n, mon.q, mon.t]
+- [mon.c, mon.f, mon.i, mon.l, mon.o, mon.r, mon.u, osd.1]
+openstack:
+- volumes: # attached to each instance
+    count: 1
+    size: 10 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, mon.b, mon.c, osd.0, osd.1]
+openstack:
+- volumes: # attached to each instance
+    count: 2
+    size: 10 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, mon.c, mon.e, osd.0]
+- [mon.b, mon.d, mon.f, osd.1]
+openstack:
+- volumes: # attached to each instance
+    count: 1
+    size: 10 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, mon.d, mon.g, osd.0]
+- [mon.b, mon.e, mon.h]
+- [mon.c, mon.f, mon.i, osd.1]
+openstack:
+- volumes: # attached to each instance
+    count: 1
+    size: 10 # GB
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_clock_no_skews.yaml</t>
+  </si>
+  <si>
+    <t>mon_clock_with_skews.yaml</t>
+  </si>
+  <si>
+    <t>mon_recovery.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+- mon_recovery:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alloc-hint.yaml</t>
+  </si>
+  <si>
+    <t>rados/test_alloc_hint.sh</t>
+  </si>
+  <si>
+    <t>ceph_objectstore_tool.yaml</t>
+  </si>
+  <si>
+    <t>filejournal.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.a, osd.0, osd.1, osd.2, client.0]
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+overrides:
+  ceph:
+    fs: xfs
+    conf:
+      osd:
+        filestore xfs extsize: true
+tasks:
+- install:
+- ceph:
+- workunit:
+    clients:
+      all:
+        - rados/test_alloc_hint.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.0, osd.0, osd.1, osd.2, osd.3, osd.4, osd.5, client.0]
+openstack:
+- volumes: # attached to each instance
+    count: 6
+    size: 10 # GB
+tasks:
+- install:
+- ceph:
+    fs: xfs
+    conf:
+      global:
+        osd max object name len: 460
+        osd max object namespace len: 64
+- ceph_objectstore_tool:
+    objects: 20
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph_test_filejournal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.0, osd.0, osd.1, client.0]
+openstack:
+- volumes: # attached to each instance
+    count: 2
+    size: 10 # GB
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- exec:
+    client.0:
+      - ceph_test_filejournal
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filestore-idempotent-aio-journal.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.0, osd.0, osd.1, client.0]
+openstack:
+- volumes: # attached to each instance
+    count: 2
+    size: 10 # GB
+tasks:
+- install:
+- ceph:
+    fs: xfs
+    conf:
+      global:
+        journal aio: true
+- filestore_idempotent:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filestore-idempotent.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.0, osd.0, osd.1, client.0]
+openstack:
+- volumes: # attached to each instance
+    count: 2
+    size: 10 # GB
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- filestore_idempotent:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fusestore.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.0, osd.0, osd.1, client.0]
+tasks:
+- install:
+- workunit:
+    clients:
+      all:
+        - objectstore/test_fuse.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectstore/test_fuse.sh</t>
+  </si>
+  <si>
+    <t>keyvaluedb.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.0, osd.0, osd.1, client.0]
+tasks:
+- install:
+- exec:
+    client.0:
+      - mkdir $TESTDIR/kvtest &amp;&amp; cd $TESTDIR/kvtest &amp;&amp; ceph_test_keyvaluedb
+      - rm -rf $TESTDIR/kvtest
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectcacher-stress.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.0, osd.0, osd.1, client.0]
+openstack:
+- volumes: # attached to each instance
+    count: 2
+    size: 10 # GB
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- workunit:
+    clients:
+      all:
+        - osdc/stress_objectcacher.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectstore.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.0, osd.0, osd.1, client.0]
+openstack:
+- volumes: # attached to each instance
+    count: 2
+    size: 10 # GB
+tasks:
+- install:
+- exec:
+    client.0:
+      - mkdir $TESTDIR/ostest &amp;&amp; cd $TESTDIR/ostest &amp;&amp; ulimit -c 0 &amp;&amp; ulimit -Sn 4096 &amp;&amp; ceph_test_objectstore --gtest_filter=-*/3
+      - rm -rf $TESTDIR/ostest
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph_test_keyvaluedb</t>
+  </si>
+  <si>
+    <t>osdc/stress_objectcacher.sh</t>
+  </si>
+  <si>
+    <t>ceph_test_objectstore --gtest_filter=-*/3</t>
+  </si>
+  <si>
+    <t>admin-socket.yaml</t>
+  </si>
+  <si>
+    <t>cephtool.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - osd.0
+  - osd.1
+  - client.a
+openstack:
+  - volumes: # attached to each instance
+      count: 2
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+- admin_socket:
+    osd.0:
+      version:
+      git_version:
+      help:
+      config show:
+      config set filestore_dump_file /tmp/foo:
+      perf dump:
+      perf schema:
+      get_heap_property tcmalloc.max_total_thread_cache_byte:
+      set_heap_property tcmalloc.max_total_thread_cache_bytes 67108864:
+      set_heap_property tcmalloc.max_total_thread_cache_bytes 33554432:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - mon.b
+  - mon.c
+  - osd.0
+  - osd.1
+  - osd.2
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+    - had wrong client addr
+    - had wrong cluster addr
+    - must scrub before tier agent can activate
+- workunit:
+    clients:
+      all:
+        - cephtool
+        - mon/pool_ops.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divergent_priors.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.0
+  - osd.0
+  - osd.1
+  - osd.2
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+overrides:
+  ceph:
+    conf:
+      osd:
+        debug osd: 5
+tasks:
+- install:
+- ceph:
+- divergent_priors:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divergent_priors2.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.0
+  - osd.0
+  - osd.1
+  - osd.2
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+overrides:
+  ceph:
+    conf:
+      osd:
+        debug osd: 5
+tasks:
+- install:
+- ceph:
+- divergent_priors2:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dump-stuck.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - osd.0
+  - osd.1
+openstack:
+  - volumes: # attached to each instance
+      count: 2
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+- dump_stuck:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec-lost-unfound.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - mon.b
+  - mon.c
+  - osd.0
+  - osd.1
+  - osd.2
+  - osd.3
+openstack:
+  - volumes: # attached to each instance
+      count: 4
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - objects unfound and apparently lost
+- ec_lost_unfound:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost-unfound-delete.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - mon.b
+  - mon.c
+  - osd.0
+  - osd.1
+  - osd.2
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - objects unfound and apparently lost
+- rep_lost_unfound_delete:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost-unfound.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - mon.b
+  - mon.c
+  - osd.0
+  - osd.1
+  - osd.2
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - objects unfound and apparently lost
+- lost_unfound:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon-config-keys.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.0
+  - mon.1
+  - mon.2
+  - osd.0
+  - osd.1
+  - osd.2
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+- workunit:
+    clients:
+      all:
+        - mon/test_mon_config_key.py
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon-seesaw.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - osd.0
+  - osd.1
+  - osd.2
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    config:
+      global:
+        osd pool default min size : 1
+      osd:
+        debug monc: 1
+        debug ms: 1
+- mon_seesaw:
+- ceph_manager.create_pool:
+    kwargs:
+      pool_name: test
+      pg_num: 1
+- ceph_manager.wait_for_clean:
+    kwargs:
+      timeout: 60
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon-thrasher.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - mon.b
+  - mon.c
+  - osd.0
+  - osd.1
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 2
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+- mon_thrash:
+    revive_delay: 20
+    thrash_delay: 1
+- workunit:
+    clients:
+      all:
+        - mon/workloadgen.sh
+    env:
+      LOADGEN_NUM_OSDS: "5"
+      VERBOSE: "1"
+      DURATION: "600"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>osd-backfill.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - mon.b
+  - mon.c
+  - osd.0
+  - osd.1
+  - osd.2
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+    conf:
+      osd:
+        osd min pg log entries: 5
+- osd_backfill:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>osd-recovery-incomplete.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - mon.b
+  - mon.c
+  - osd.0
+  - osd.1
+  - osd.2
+  - osd.3
+openstack:
+  - volumes: # attached to each instance
+      count: 4
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+    conf:
+      osd:
+        osd min pg log entries: 5
+        osd_fast_fail_on_connection_refused: false
+- osd_recovery.test_incomplete_pgs:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>osd-recovery.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - mon.b
+  - mon.c
+  - osd.0
+  - osd.1
+  - osd.2
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+    conf:
+      osd:
+        osd min pg log entries: 5
+        osd_fast_fail_on_connection_refused: false
+- osd_recovery:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peer.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.0
+  - mon.1
+  - mon.2
+  - osd.0
+  - osd.1
+  - osd.2
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    config:
+      global:
+        osd pool default min size : 1
+    log-whitelist:
+    - objects unfound and apparently lost
+- peer:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg-removal-interruption.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - osd.0
+  - osd.1
+  - osd.2
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+    - slow request
+- exec:
+    client.0:
+      - sudo ceph osd pool create foo 128 128
+      - sleep 5
+      - sudo ceph tell osd.0 injectargs -- --osd-inject-failure-on-pg-removal
+      - sudo ceph osd pool delete foo foo --yes-i-really-really-mean-it
+- ceph.wait_for_failure: [osd.0]
+- exec:
+    client.0:
+      - sudo ceph osd down 0
+- ceph.restart: [osd.0]
+- ceph.healthy:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radostool.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - osd.0
+  - osd.1
+  - osd.2
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 2
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+    - had wrong client addr
+    - had wrong cluster addr
+    - reached quota
+- workunit:
+    clients:
+      all:
+        - rados/test_rados_tool.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebuild-mondb.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.0
+  - mon.1
+  - mon.2
+  - osd.0
+  - osd.1
+  - osd.2
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - no reply from
+- full_sequential:
+  - radosbench:
+      clients: [client.0]
+      time: 30
+  - rebuild_mondb:
+  - radosbench:
+      clients: [client.0]
+      time: 30
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg11184.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.0
+  - osd.0
+  - osd.1
+  - osd.2
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+overrides:
+  ceph:
+    conf:
+      osd:
+        debug osd: 5
+tasks:
+- install:
+- ceph:
+- reg11184:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolve_stuck_peering.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- [mon.0]
+- [osd.0, osd.1, osd.2, client.0]
+tasks:
+- install:
+- ceph:
+    fs: xfs
+- resolve_stuck_peering:
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest-api.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.0
+  - mon.1
+  - mon.2
+  - osd.0
+  - osd.1
+  - osd.2
+  - mds.a
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+    - had wrong client addr
+    conf:
+      client.rest0:
+        debug ms: 1
+        debug objecter: 20
+        debug rados: 20
+- rest-api: [client.0]
+- workunit:
+    clients:
+      all:
+        - rest/test.py
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_envlibrados_for_rocksdb.yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    fs: ext4
+    conf:
+      global:
+        osd max object name len: 460
+        osd max object namespace len: 64
+roles:
+- [mon.a, osd.0, osd.1, osd.2, client.0]
+tasks:
+- install:
+- ceph:
+- workunit:
+    clients:
+      all:
+        - rados/test_envlibrados_for_rocksdb.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrash-rados.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - osd.0
+  - osd.1
+  - osd.2
+- - osd.3
+  - osd.4
+  - osd.5
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+- thrashosds:
+    op_delay: 30
+    clean_interval: 120
+    chance_down: .5
+- workunit:
+    clients:
+      all:
+      - rados/load-gen-mix-small.sh
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrash_cache_writeback_proxy_none.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.a
+  - osd.0
+  - osd.1
+  - osd.2
+- - osd.3
+  - osd.4
+  - osd.5
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 30 # GB
+tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - wrongly marked me down
+    - slow request
+- exec:
+    client.0:
+      - sudo ceph osd pool create base 4
+      - sudo ceph osd pool create cache 4
+      - sudo ceph osd tier add base cache
+      - sudo ceph osd tier cache-mode cache writeback
+      - sudo ceph osd tier set-overlay base cache
+      - sudo ceph osd pool set cache hit_set_type bloom
+      - sudo ceph osd pool set cache hit_set_count 8
+      - sudo ceph osd pool set cache hit_set_period 60
+      - sudo ceph osd pool set cache target_max_objects 500
+- background_exec:
+    mon.a:
+      - while true
+      - do sleep 30
+      - echo proxy
+      - sudo ceph osd tier cache-mode cache proxy
+      - sleep 10
+      - sudo ceph osd pool set cache cache_target_full_ratio .001
+      - echo cache-try-flush-evict-all
+      - rados -p cache cache-try-flush-evict-all
+      - sleep 5
+      - echo cache-flush-evict-all
+      - rados -p cache cache-flush-evict-all
+      - sleep 5
+      - echo remove overlay
+      - sudo ceph osd tier remove-overlay base
+      - sleep 20
+      - echo add writeback overlay
+      - sudo ceph osd tier cache-mode cache writeback
+      - sudo ceph osd pool set cache cache_target_full_ratio .8
+      - sudo ceph osd tier set-overlay base cache
+      - sleep 30
+      - sudo ceph osd tier cache-mode cache readproxy
+      - done
+- rados:
+    clients: [client.0]
+    pools: [base]
+    max_seconds: 600
+    ops: 400000
+    objects: 10000
+    size: 1024
+    op_weights:
+      read: 100
+      write: 100
+      delete: 50
+      copy_from: 50
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch-notify-same-primary.yaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roles:
+- - mon.0
+  - mon.1
+  - mon.2
+  - osd.0
+  - osd.1
+  - osd.2
+  - client.0
+openstack:
+  - volumes: # attached to each instance
+      count: 3
+      size: 10 # GB
+tasks:
+- install:
+- ceph:
+    config:
+      global:
+        osd pool default min size : 1
+      client:
+        debug ms: 1
+        debug objecter: 20
+        debug rados: 20
+    log-whitelist:
+    - objects unfound and apparently lost
+- watch_notify_same_primary:
+    clients: [client.0]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cephtool
+mon/pool_ops.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon/test_mon_config_key.py</t>
+  </si>
+  <si>
+    <t>mon/workloadgen.sh</t>
+  </si>
+  <si>
+    <t>rados/test_rados_tool.sh</t>
+  </si>
+  <si>
+    <t>sudo ceph osd down 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest/test.py</t>
+  </si>
+  <si>
+    <t>rados/test_envlibrados_for_rocksdb.sh</t>
+  </si>
+  <si>
+    <t>exec:
+sudo ceph osd pool create base 4
+sudo ceph osd pool create cache 4
+sudo ceph osd tier add base cache
+sudo ceph osd tier cache-mode cache writeback
+sudo ceph osd tier set-overlay base cache
+sudo ceph osd pool set cache hit_set_type bloom
+sudo ceph osd pool set cache hit_set_count 8
+sudo ceph osd pool set cache hit_set_period 60
+sudo ceph osd pool set cache target_max_objects 500
+background_exec:
+while true
+do sleep 30
+echo proxy
+sudo ceph osd tier cache-mode cache proxy
+sleep 10
+sudo ceph osd pool set cache cache_target_full_ratio .001
+echo cache-try-flush-evict-all
+rados -p cache cache-try-flush-evict-all
+sleep 5
+echo cache-flush-evict-all
+rados -p cache cache-flush-evict-all
+sleep 5
+echo remove overlay
+sudo ceph osd tier remove-overlay base
+sleep 20
+echo add writeback overlay
+sudo ceph osd tier cache-mode cache writeback
+sudo ceph osd pool set cache cache_target_full_ratio .8
+sudo ceph osd tier set-overlay base cache
+sleep 30
+sudo ceph osd tier cache-mode cache readproxy
+done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks:
+- install:
+- ceph:
+    log-whitelist:
+    - slow request
+    - .*clock.*skew.*
+    - clocks not synchronized
+- mon_clock_skew_check:
+    expect-skew: false
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overrides:
+  ceph:
+    conf:
+      mon.b:
+        clock offset: 10
+tasks:
+- install:
+- ceph:
+    wait-for-healthy: false
+    log-whitelist:
+    - slow request
+    - .*clock.*skew.*
+    - clocks not synchronized
+- mon_clock_skew_check:
+    expect-skew: true
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rados/load-gen-mix-small.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -237,20 +3505,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -259,11 +3554,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,21 +3894,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:H360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="B311" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F325" sqref="F325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="6" max="6" width="52.375" customWidth="1"/>
+    <col min="7" max="7" width="114.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="90" customHeight="1">
+    <row r="1" spans="1:8" ht="40.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +3921,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -593,8 +3931,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -602,298 +3941,3772 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" customHeight="1">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+    <row r="12" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+    <row r="13" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+    <row r="14" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+    <row r="15" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+    <row r="16" spans="1:8" ht="13.5" customHeight="1">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="17" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="18" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    <row r="19" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="B65" t="s">
+    <row r="20" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="B66" t="s">
+    <row r="21" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="B67" t="s">
+    <row r="31" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="C31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" ht="30.75" customHeight="1">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="44.25" customHeight="1">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="59.25" customHeight="1">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="2:7" ht="27.75" customHeight="1">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="283.5" customHeight="1">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="155" spans="3:3" ht="13.5" customHeight="1">
+      <c r="C155" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" ht="13.5" customHeight="1">
+      <c r="C156" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" ht="13.5" customHeight="1">
+      <c r="C157" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" ht="13.5" customHeight="1">
+      <c r="C158" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" ht="13.5" customHeight="1">
+      <c r="C159" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" ht="13.5" customHeight="1">
+      <c r="C160" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" ht="13.5" customHeight="1">
+      <c r="C161" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" ht="13.5" customHeight="1">
+      <c r="C162" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A177" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="B70" t="s">
+    <row r="178" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B178" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C178" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D178" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B179" s="3"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F179" s="9"/>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B180" s="3"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B181" s="3"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F181" s="9"/>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B182" s="3"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B183" s="3"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B184" s="3"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B185" s="3"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B186" s="3"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B187" s="3"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B188" s="3"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B189" s="3"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B190" s="3"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G190" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="D71" t="s">
+    <row r="191" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B191" s="3"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G191" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="D72" t="s">
+    <row r="192" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B192" s="3"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B193" s="3"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F193" s="9"/>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B194" s="3"/>
+      <c r="C194" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B195" s="3"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B196" s="3"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B197" s="3"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F197" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B198" s="3"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B199" s="3"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B200" s="3"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F200" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B201" s="3"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F201" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B202" s="3"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F202" s="12"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B203" s="3"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F203" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B204" s="3"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F204" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B205" s="3"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F205" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B206" s="3"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F206" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B207" s="3"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B208" s="3"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F208" s="12"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B209" s="3"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F209" s="12"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B210" s="3"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F210" s="12"/>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B211" s="3"/>
+      <c r="C211" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F211" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B212" s="3"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B213" s="3"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F213" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B214" s="3"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F214" s="9"/>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B215" s="3"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B216" s="3"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B217" s="3"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B218" s="3"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F218" s="9"/>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B219" s="3"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B220" s="3"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F220" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B221" s="3"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B222" s="3"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F222" s="9"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B223" s="3"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B224" s="3"/>
+      <c r="C224" s="8"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B225" s="3"/>
+      <c r="C225" s="8"/>
+      <c r="D225" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B226" s="3"/>
+      <c r="C226" s="8"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B227" s="3"/>
+      <c r="C227" s="8"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F227" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B228" s="3"/>
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F228" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B229" s="3"/>
+      <c r="C229" s="8"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F229" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B230" s="3"/>
+      <c r="C230" s="8"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F230" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B231" s="3"/>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F231" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B232" s="3"/>
+      <c r="C232" s="8"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F232" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B233" s="3"/>
+      <c r="C233" s="8"/>
+      <c r="D233" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B234" s="3"/>
+      <c r="C234" s="8"/>
+      <c r="D234" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E234" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F234" s="9"/>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B235" s="3"/>
+      <c r="C235" s="8"/>
+      <c r="D235" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F235" s="9"/>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B236" s="3"/>
+      <c r="C236" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F236" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B237" s="3"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F237" s="12"/>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B238" s="3"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B239" s="3"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B240" s="3"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B241" s="3"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F241" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B242" s="3"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B243" s="3"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B244" s="3"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F244" s="12"/>
+      <c r="G244" s="4"/>
+    </row>
+    <row r="245" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B245" s="3"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F245" s="12"/>
+      <c r="G245" s="4"/>
+    </row>
+    <row r="246" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B246" s="3"/>
+      <c r="C246" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F246" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B247" s="3"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F247" s="9"/>
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B248" s="3"/>
+      <c r="C248" s="8"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F248" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G248" s="4"/>
+    </row>
+    <row r="249" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B249" s="3"/>
+      <c r="C249" s="8"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F249" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G249" s="4"/>
+    </row>
+    <row r="250" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B250" s="3"/>
+      <c r="C250" s="8"/>
+      <c r="D250" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F250" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G250" s="4"/>
+    </row>
+    <row r="251" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B251" s="3"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F251" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B252" s="3"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F252" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B253" s="3"/>
+      <c r="C253" s="8"/>
+      <c r="D253" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="4"/>
+    </row>
+    <row r="254" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B254" s="3"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F254" s="9"/>
+      <c r="G254" s="4"/>
+    </row>
+    <row r="255" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B255" s="3"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F255" s="9"/>
+      <c r="G255" s="4"/>
+    </row>
+    <row r="256" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B256" s="3"/>
+      <c r="C256" s="8"/>
+      <c r="D256" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F256" s="9"/>
+      <c r="G256" s="4"/>
+    </row>
+    <row r="257" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B257" s="3"/>
+      <c r="C257" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F257" s="12"/>
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B258" s="3"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F258" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G258" s="4"/>
+    </row>
+    <row r="259" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B259" s="3"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G259" s="4"/>
+    </row>
+    <row r="260" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B260" s="3"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F260" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B261" s="3"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F261" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G261" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="D73" t="s">
+    <row r="262" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B262" s="3"/>
+      <c r="C262" s="11"/>
+      <c r="D262" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B263" s="3"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F263" s="12"/>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="264" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B264" s="3"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F264" s="12"/>
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B265" s="3"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F265" s="12"/>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B266" s="3"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F266" s="12"/>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B267" s="3"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F267" s="12"/>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B268" s="3"/>
+      <c r="C268" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E268" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F268" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B269" s="3"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F269" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B270" s="3"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F270" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B271" s="3"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E271" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F271" s="9"/>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B272" s="3"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F272" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B273" s="3"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F273" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B274" s="3"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E274" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F274" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G274" s="4"/>
+    </row>
+    <row r="275" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B275" s="3"/>
+      <c r="C275" s="8"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F275" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G275" s="4"/>
+    </row>
+    <row r="276" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B276" s="3"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E276" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F276" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B277" s="3"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F277" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G277" s="4"/>
+    </row>
+    <row r="278" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B278" s="3"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F278" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G278" s="4"/>
+    </row>
+    <row r="279" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B279" s="3"/>
+      <c r="C279" s="8"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F279" s="9"/>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B280" s="3"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F280" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B281" s="3"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F281" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G281" s="4"/>
+    </row>
+    <row r="282" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B282" s="3"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F282" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B283" s="3"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F283" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B284" s="3"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F284" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B285" s="3"/>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F285" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B286" s="3"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F286" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B287" s="3"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="4"/>
+    </row>
+    <row r="288" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B288" s="3"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F288" s="9"/>
+      <c r="G288" s="4"/>
+    </row>
+    <row r="289" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B289" s="3"/>
+      <c r="C289" s="8"/>
+      <c r="D289" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F289" s="9"/>
+      <c r="G289" s="4"/>
+    </row>
+    <row r="290" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B290" s="3"/>
+      <c r="C290" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F290" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B291" s="3"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F291" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G291" s="4"/>
+    </row>
+    <row r="292" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B292" s="3"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F292" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B293" s="3"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F293" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B294" s="3"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F294" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B295" s="3"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F295" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B296" s="3"/>
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F296" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B297" s="3"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F297" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B298" s="3"/>
+      <c r="C298" s="11"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F298" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G298" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="D74" t="s">
+    <row r="299" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B299" s="3"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F299" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B300" s="3"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F300" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B301" s="3"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F301" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B302" s="3"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F302" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B303" s="3"/>
+      <c r="C303" s="11"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F303" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B304" s="3"/>
+      <c r="C304" s="11"/>
+      <c r="D304" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E304" s="12"/>
+      <c r="F304" s="12"/>
+      <c r="G304" s="4"/>
+    </row>
+    <row r="305" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B305" s="3"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E305" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F305" s="12"/>
+      <c r="G305" s="4"/>
+    </row>
+    <row r="306" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B306" s="3"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E306" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F306" s="12"/>
+      <c r="G306" s="4"/>
+    </row>
+    <row r="307" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B307" s="3"/>
+      <c r="C307" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F307" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G307" s="4"/>
+    </row>
+    <row r="308" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B308" s="3"/>
+      <c r="C308" s="8"/>
+      <c r="D308" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E308" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F308" s="9"/>
+      <c r="G308" s="4"/>
+    </row>
+    <row r="309" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B309" s="3"/>
+      <c r="C309" s="8"/>
+      <c r="D309" s="8"/>
+      <c r="E309" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F309" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G309" s="4"/>
+    </row>
+    <row r="310" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B310" s="3"/>
+      <c r="C310" s="8"/>
+      <c r="D310" s="8"/>
+      <c r="E310" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F310" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G310" s="4"/>
+    </row>
+    <row r="311" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B311" s="3"/>
+      <c r="C311" s="8"/>
+      <c r="D311" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E311" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F311" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G311" s="4"/>
+    </row>
+    <row r="312" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B312" s="3"/>
+      <c r="C312" s="8"/>
+      <c r="D312" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E312" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F312" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G312" s="4"/>
+    </row>
+    <row r="313" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B313" s="3"/>
+      <c r="C313" s="8"/>
+      <c r="D313" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F313" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G313" s="4"/>
+    </row>
+    <row r="314" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B314" s="3"/>
+      <c r="C314" s="8"/>
+      <c r="D314" s="8"/>
+      <c r="E314" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F314" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G314" s="4"/>
+    </row>
+    <row r="315" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B315" s="3"/>
+      <c r="C315" s="8"/>
+      <c r="D315" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E315" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F315" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B316" s="3"/>
+      <c r="C316" s="8"/>
+      <c r="D316" s="8"/>
+      <c r="E316" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F316" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B317" s="3"/>
+      <c r="C317" s="8"/>
+      <c r="D317" s="8"/>
+      <c r="E317" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F317" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B318" s="3"/>
+      <c r="C318" s="8"/>
+      <c r="D318" s="8"/>
+      <c r="E318" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F318" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B319" s="3"/>
+      <c r="C319" s="8"/>
+      <c r="D319" s="8"/>
+      <c r="E319" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F319" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G319" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B320" s="3"/>
+      <c r="C320" s="8"/>
+      <c r="D320" s="8"/>
+      <c r="E320" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F320" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G320" s="4"/>
+    </row>
+    <row r="321" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B321" s="3"/>
+      <c r="C321" s="8"/>
+      <c r="D321" s="8"/>
+      <c r="E321" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F321" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G321" s="4"/>
+    </row>
+    <row r="322" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B322" s="3"/>
+      <c r="C322" s="8"/>
+      <c r="D322" s="8"/>
+      <c r="E322" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F322" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G322" s="4"/>
+    </row>
+    <row r="323" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B323" s="3"/>
+      <c r="C323" s="8"/>
+      <c r="D323" s="8"/>
+      <c r="E323" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F323" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G323" s="4"/>
+    </row>
+    <row r="324" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B324" s="3"/>
+      <c r="C324" s="8"/>
+      <c r="D324" s="8"/>
+      <c r="E324" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F324" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G324" s="4"/>
+    </row>
+    <row r="325" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B325" s="3"/>
+      <c r="C325" s="8"/>
+      <c r="D325" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E325" s="9"/>
+      <c r="F325" s="9"/>
+      <c r="G325" s="4"/>
+    </row>
+    <row r="326" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B326" s="3"/>
+      <c r="C326" s="8"/>
+      <c r="D326" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E326" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F326" s="9"/>
+      <c r="G326" s="4"/>
+    </row>
+    <row r="327" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B327" s="3"/>
+      <c r="C327" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="C75" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="D327" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E327" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F327" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G327" s="4"/>
+    </row>
+    <row r="328" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B328" s="3"/>
+      <c r="C328" s="11"/>
+      <c r="D328" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E328" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F328" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B329" s="3"/>
+      <c r="C329" s="11"/>
+      <c r="D329" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E329" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F329" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G329" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B330" s="3"/>
+      <c r="C330" s="11"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F330" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G330" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="D76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="C77" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="C78" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" t="s">
+    <row r="331" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B331" s="3"/>
+      <c r="C331" s="11"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F331" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G331" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B332" s="3"/>
+      <c r="C332" s="11"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F332" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G332" s="4"/>
+    </row>
+    <row r="333" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B333" s="3"/>
+      <c r="C333" s="11"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F333" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B334" s="3"/>
+      <c r="C334" s="11"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F334" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G334" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B335" s="3"/>
+      <c r="C335" s="11"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F335" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G335" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B336" s="3"/>
+      <c r="C336" s="11"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F336" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B337" s="3"/>
+      <c r="C337" s="11"/>
+      <c r="D337" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E337" s="13"/>
+      <c r="F337" s="12"/>
+      <c r="G337" s="4"/>
+    </row>
+    <row r="338" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B338" s="3"/>
+      <c r="C338" s="11"/>
+      <c r="D338" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E338" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F338" s="12"/>
+      <c r="G338" s="4"/>
+    </row>
+    <row r="339" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B339" s="3"/>
+      <c r="C339" s="11"/>
+      <c r="D339" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E339" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F339" s="12"/>
+      <c r="G339" s="4"/>
+    </row>
+    <row r="340" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B340" s="3"/>
+      <c r="C340" s="11"/>
+      <c r="D340" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E340" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F340" s="12"/>
+      <c r="G340" s="4"/>
+    </row>
+    <row r="344" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B344" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B345" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B346" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B347" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B348" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B349" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B350" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B351" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7" ht="13.5" customHeight="1">
+      <c r="F352" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="D79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="C80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="D81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="C89" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4">
-      <c r="C90" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="C91" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4">
-      <c r="C92" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
-        <v>28</v>
+    <row r="353" spans="6:6" ht="13.5" customHeight="1">
+      <c r="F353" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="354" spans="6:6" ht="13.5" customHeight="1">
+      <c r="F354" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="355" spans="6:6" ht="13.5" customHeight="1">
+      <c r="F355" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="356" spans="6:6" ht="13.5" customHeight="1">
+      <c r="F356" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="357" spans="6:6" ht="13.5" customHeight="1">
+      <c r="F357" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="358" spans="6:6" ht="13.5" customHeight="1">
+      <c r="F358" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="359" spans="6:6" ht="13.5" customHeight="1">
+      <c r="F359" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="360" spans="6:6" ht="13.5" customHeight="1">
+      <c r="F360" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C93:C101"/>
+    <mergeCell ref="D102:D126"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="C102:C133"/>
+    <mergeCell ref="B31:B133"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="C57:C77"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="C78:C92"/>
+    <mergeCell ref="D41:D52"/>
+    <mergeCell ref="C31:C56"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D315:D324"/>
+    <mergeCell ref="C307:C326"/>
+    <mergeCell ref="D329:D336"/>
+    <mergeCell ref="C327:C340"/>
+    <mergeCell ref="B178:B340"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D282:D286"/>
+    <mergeCell ref="C268:C289"/>
+    <mergeCell ref="D290:D303"/>
+    <mergeCell ref="C290:C306"/>
+    <mergeCell ref="D308:D310"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="D257:D259"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="C257:C267"/>
+    <mergeCell ref="D268:D270"/>
+    <mergeCell ref="D271:D273"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="D277:D281"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="C236:C245"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C246:C256"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="D225:D232"/>
+    <mergeCell ref="C211:C235"/>
+    <mergeCell ref="D237:D239"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="C194:C210"/>
+    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D187:D191"/>
+    <mergeCell ref="C178:C193"/>
+    <mergeCell ref="D195:D198"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -902,12 +7715,852 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:X32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:X32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
